--- a/synthetic-cell-state-biomarkers.xlsx
+++ b/synthetic-cell-state-biomarkers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aqib/Desktop/BCCL/char-syn-gene-nets/circuit-state/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA99EA5-638C-5540-8D63-B3E189F9BCDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935D246F-98D1-824C-81E3-68F53FEAA3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="980" windowWidth="28040" windowHeight="17440" xr2:uid="{552E05E8-83AF-0E4B-B324-2E62912FB4B6}"/>
+    <workbookView xWindow="160" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{552E05E8-83AF-0E4B-B324-2E62912FB4B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="157">
   <si>
     <t>gene</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>protein</t>
-  </si>
-  <si>
-    <t>peptidoglycan endopeptidase MepM</t>
   </si>
   <si>
     <t>mepM</t>
@@ -216,13 +213,748 @@
   </si>
   <si>
     <t>up</t>
+  </si>
+  <si>
+    <t>polypeptide</t>
+  </si>
+  <si>
+    <t>uncharacterized protein</t>
+  </si>
+  <si>
+    <t>peptidoglycan endopeptidase</t>
+  </si>
+  <si>
+    <t>operon</t>
+  </si>
+  <si>
+    <t>50S ribosomal subunit protein L31B</t>
+  </si>
+  <si>
+    <t>ykgM, ykgO</t>
+  </si>
+  <si>
+    <t>regulator</t>
+  </si>
+  <si>
+    <t>zur</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Under zinc-deficient conditions, ykgM is upregulated. Why is ykgM downregulated in circuits if znuABC suggest that zinc is deficient (or show the same phenotype)?</t>
+  </si>
+  <si>
+    <t>50S ribosomal subunit protein L36B</t>
+  </si>
+  <si>
+    <t>grows more poorly than WT</t>
+  </si>
+  <si>
+    <t>metal-binding protein</t>
+  </si>
+  <si>
+    <t>delivering Zn2+ to ZnuA under conditions of severe Zn2+ shortage</t>
+  </si>
+  <si>
+    <t>zur, fur, oxyR, soxS</t>
+  </si>
+  <si>
+    <t>grows poorly in zinc-deficient media</t>
+  </si>
+  <si>
+    <r>
+      <t>Zn</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ABC transporter periplasmic binding protein</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">belongs to a network of genes which facilitate stress-induced mutagenesis (SIM) in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. coli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> K-12</t>
+    </r>
+  </si>
+  <si>
+    <t>oxyR, nac, zur</t>
+  </si>
+  <si>
+    <t>znuC, znuB</t>
+  </si>
+  <si>
+    <t>oxyR, zur</t>
+  </si>
+  <si>
+    <r>
+      <t>Zn</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ABC transporter membrane subunit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Zn</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ABC transporter ATP binding subunit</t>
+    </r>
+  </si>
+  <si>
+    <t>inhibitor of g-type lysozyme</t>
+  </si>
+  <si>
+    <t>increased sensitivity to g-type lysozyme in the presence of EDTA</t>
+  </si>
+  <si>
+    <t>glaR, zur</t>
+  </si>
+  <si>
+    <t>nac</t>
+  </si>
+  <si>
+    <t>mRNA interferase toxin</t>
+  </si>
+  <si>
+    <t>mqsA</t>
+  </si>
+  <si>
+    <t>mqsR, mqsA</t>
+  </si>
+  <si>
+    <t>inhibits protein synthesis by specifically cleaving mRNAs at GCU sites</t>
+  </si>
+  <si>
+    <t>decreased levels of persister cells only when the inoculum is from aged cultures</t>
+  </si>
+  <si>
+    <r>
+      <t>dipeptide/tripeptide:H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> symporter</t>
+    </r>
+  </si>
+  <si>
+    <t>transporter</t>
+  </si>
+  <si>
+    <t>ompR, lrp, gadX</t>
+  </si>
+  <si>
+    <t>regulator of porin synthesis</t>
+  </si>
+  <si>
+    <r>
+      <t>Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ompR-envZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cells grow poorly and display significant alterations in the transcripts of more than 100 genes</t>
+    </r>
+  </si>
+  <si>
+    <t>ompR, envZ</t>
+  </si>
+  <si>
+    <t>nac, ihfA, ihfB</t>
+  </si>
+  <si>
+    <t>nitrate reductase Z subunit α</t>
+  </si>
+  <si>
+    <t>dimer</t>
+  </si>
+  <si>
+    <t>it is predicted to be the site of nitrate reduction and to contain the molybdenum cofactor</t>
+  </si>
+  <si>
+    <t>putative private chaperone for NarZ nitrate reductase subunit</t>
+  </si>
+  <si>
+    <t>nitrate reductase Z subunit γ</t>
+  </si>
+  <si>
+    <t>nitrate reductase Z subunit β</t>
+  </si>
+  <si>
+    <t>nitrate/nitrite transporter</t>
+  </si>
+  <si>
+    <t>catalyses nitrate uptake and nitrite export by an unknown mechanism</t>
+  </si>
+  <si>
+    <t>narZ, narY, narW, narV, narU</t>
+  </si>
+  <si>
+    <t>sensor histidine kinase</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The synthesis of both OmpC and OmpF is affected when </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>envZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is deleted</t>
+    </r>
+  </si>
+  <si>
+    <t>stress-induced bacterial acidophilic repeat motifs-containing protein</t>
+  </si>
+  <si>
+    <t>curli assembly component</t>
+  </si>
+  <si>
+    <t>https://biocyc.org/gene?orgid=ECOLI&amp;id=G6545</t>
+  </si>
+  <si>
+    <t>ompR, ppGpp, fliZ, mqsA</t>
+  </si>
+  <si>
+    <t>DNA-binding transcriptional dual regulator</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>putative selenium transporter</t>
+  </si>
+  <si>
+    <t>yedE, yedF</t>
+  </si>
+  <si>
+    <t>putative sulfurtransferase</t>
+  </si>
+  <si>
+    <t>hydrogenase 2 small subunit</t>
+  </si>
+  <si>
+    <t>hybOABCDEFG</t>
+  </si>
+  <si>
+    <t>arcA, narL</t>
+  </si>
+  <si>
+    <t>hydrogenase 2 iron-sulfur protein</t>
+  </si>
+  <si>
+    <t>hydrogenase 1 large subunit</t>
+  </si>
+  <si>
+    <t>putative phosphotransferase</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under conditions when the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C. elegans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gut microbiota consists of a single </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. coli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ycbJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mutant strain, the life span of the nematode increases by 19% compared to colonization with wild-type </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. coli</t>
+    </r>
+  </si>
+  <si>
+    <t>thiosulfate transporter</t>
+  </si>
+  <si>
+    <t>yeeE, yeeD</t>
+  </si>
+  <si>
+    <t>lrp</t>
+  </si>
+  <si>
+    <r>
+      <t>inhibits the ability of strains (Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cysPUWA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or Δ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cysA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) lacking the sulfate/thiosulfate ABC-type transporters to grow with thiosulfate as sole sulfur source</t>
+    </r>
+  </si>
+  <si>
+    <t>upregulated in response to hydroquinone</t>
+  </si>
+  <si>
+    <t>anti-adaptor protein</t>
+  </si>
+  <si>
+    <r>
+      <t>inhibitor of σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> proteolysis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When placed on a multicopy plasmid, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iraD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> creates a mutator phenotype</t>
+    </r>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>sulfate/thiosulfate ABC transporter inner membrane subunit</t>
+  </si>
+  <si>
+    <t>sulfite reductase, flavoprotein subunit complex</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cysJ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mutant is less sensitive to paraquat than wild type</t>
+    </r>
+  </si>
+  <si>
+    <t>sulfite reductase, hemoprotein subunit</t>
+  </si>
+  <si>
+    <t>phosphoadenosine phosphosulfate reductase</t>
+  </si>
+  <si>
+    <t>sulfate adenylyltransferase subunit 1</t>
+  </si>
+  <si>
+    <t>sulfate/thiosulfate ABC transporter ATP binding subunit</t>
+  </si>
+  <si>
+    <t>sulfate adenylyltransferase subunit 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mutations in the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cysD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gene prevent the anabolic utilization of sulfate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cysD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> belongs to a network of genes which facilitate stress-induced mutagenesis (SIM) in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E. coli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> K-12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cysD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as well as other genes involved in sulfur metabolism was significantly upregulated in a MG1655 lysogen carrying the Stx2a phage PA8</t>
+    </r>
+  </si>
+  <si>
+    <t>putative peroxidase</t>
+  </si>
+  <si>
+    <t>cysB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cells overexpressing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yciW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> show increased tolerance to external L-cysteine</t>
+    </r>
+  </si>
+  <si>
+    <t>kawan2015enhancement</t>
+  </si>
+  <si>
+    <t>cysteine synthase A</t>
+  </si>
+  <si>
+    <t>CysK abundance increases during sulfur starvation</t>
+  </si>
+  <si>
+    <t>treat with L-cysteine (toxic amt (1 mM?))</t>
+  </si>
+  <si>
+    <t>Mutants lacking CysK function are more sensitive to chromate toxicity</t>
+  </si>
+  <si>
+    <t>thiosulfate/sulfate ABC transporter periplasmic binding protein</t>
+  </si>
+  <si>
+    <t>adenylyl-sulfate kinase</t>
+  </si>
+  <si>
+    <t>putative thiosulfate sulfurtransferase</t>
+  </si>
+  <si>
+    <t>acetolactate synthase II subunit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -246,16 +978,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -263,16 +1017,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -281,6 +1047,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -597,449 +1370,916 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B39F551-611F-CA48-A6AE-A3F53E814C65}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="134" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="119" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>141</v>
+      </c>
+      <c r="E39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" t="s">
+        <v>145</v>
+      </c>
+      <c r="E40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>149</v>
+      </c>
+      <c r="E41" t="s">
+        <v>152</v>
+      </c>
+      <c r="J41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="B44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" t="s">
+        <v>128</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="B45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="B46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>59</v>
+      <c r="B47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="babu2011genetic" xr:uid="{913EC6B2-C9ED-AB47-9C8F-D7A16E6BDDD8}"/>
+    <hyperlink ref="E21" r:id="rId2" xr:uid="{399FC2D4-C692-A040-BE7D-9FFBB6926C2F}"/>
+    <hyperlink ref="F31" r:id="rId3" xr:uid="{93E4EE99-9E33-F94E-A800-7C187BECADBA}"/>
+    <hyperlink ref="F33" r:id="rId4" xr:uid="{345A440F-98FB-8B44-B653-28563F0CCA79}"/>
+    <hyperlink ref="F40" r:id="rId5" xr:uid="{878D31D4-5AB4-3B49-85D1-0A6C15CA080F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/synthetic-cell-state-biomarkers.xlsx
+++ b/synthetic-cell-state-biomarkers.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aqib/Desktop/BCCL/char-syn-gene-nets/circuit-state/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935D246F-98D1-824C-81E3-68F53FEAA3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5B6C0F-A5B6-B840-84ED-29566FC6E15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{552E05E8-83AF-0E4B-B324-2E62912FB4B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="156">
   <si>
     <t>gene</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>ilvX</t>
-  </si>
-  <si>
-    <t>ilvM</t>
   </si>
   <si>
     <t>up</t>
@@ -1372,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B39F551-611F-CA48-A6AE-A3F53E814C65}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="134" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="134" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1413,13 +1410,13 @@
         <v>8</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="82" customHeight="1" x14ac:dyDescent="0.2">
@@ -1433,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -1453,13 +1450,13 @@
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1470,22 +1467,22 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1496,16 +1493,16 @@
         <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1516,19 +1513,19 @@
         <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19" x14ac:dyDescent="0.2">
@@ -1539,16 +1536,16 @@
         <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" t="s">
         <v>75</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19" x14ac:dyDescent="0.2">
@@ -1559,16 +1556,16 @@
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19" x14ac:dyDescent="0.2">
@@ -1579,19 +1576,19 @@
         <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1602,16 +1599,16 @@
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
         <v>82</v>
       </c>
-      <c r="E10" t="s">
+      <c r="I10" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1625,19 +1622,19 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" t="s">
         <v>88</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.2">
@@ -1648,13 +1645,13 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1665,19 +1662,19 @@
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="J13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1688,16 +1685,16 @@
         <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1708,13 +1705,13 @@
         <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1725,13 +1722,13 @@
         <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1742,13 +1739,13 @@
         <v>33</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1759,13 +1756,13 @@
         <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" t="s">
         <v>104</v>
-      </c>
-      <c r="J18" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1779,13 +1776,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s">
         <v>107</v>
       </c>
-      <c r="E19" t="s">
-        <v>108</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1796,10 +1793,10 @@
         <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1810,16 +1807,16 @@
         <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="I21" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1830,16 +1827,16 @@
         <v>33</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1850,16 +1847,16 @@
         <v>33</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1867,13 +1864,13 @@
         <v>34</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
         <v>59</v>
-      </c>
-      <c r="D24" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1881,16 +1878,16 @@
         <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1898,16 +1895,16 @@
         <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1915,19 +1912,19 @@
         <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
+        <v>117</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1935,19 +1932,19 @@
         <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1955,13 +1952,13 @@
         <v>39</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1969,16 +1966,16 @@
         <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" t="s">
         <v>123</v>
-      </c>
-      <c r="J30" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.2">
@@ -1986,22 +1983,22 @@
         <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J31" t="s">
         <v>130</v>
-      </c>
-      <c r="E31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="J31" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2009,13 +2006,13 @@
         <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2023,19 +2020,19 @@
         <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D33" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" t="s">
         <v>135</v>
       </c>
-      <c r="E33" t="s">
-        <v>136</v>
-      </c>
       <c r="F33" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2043,13 +2040,13 @@
         <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2057,13 +2054,13 @@
         <v>46</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2071,13 +2068,13 @@
         <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2085,13 +2082,13 @@
         <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2099,13 +2096,13 @@
         <v>49</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2113,22 +2110,22 @@
         <v>50</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" t="s">
         <v>141</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2136,25 +2133,25 @@
         <v>51</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="E40" t="s">
-        <v>147</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2162,19 +2159,19 @@
         <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" t="s">
+        <v>151</v>
+      </c>
+      <c r="J41" t="s">
         <v>149</v>
-      </c>
-      <c r="E41" t="s">
-        <v>152</v>
-      </c>
-      <c r="J41" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2182,13 +2179,13 @@
         <v>53</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2196,13 +2193,13 @@
         <v>54</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2210,25 +2207,25 @@
         <v>41</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E44" t="s">
+      <c r="I44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J44" t="s">
         <v>128</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J44" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2236,13 +2233,13 @@
         <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2250,27 +2247,24 @@
         <v>56</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" t="s">
         <v>59</v>
       </c>
-      <c r="D46" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="B47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/synthetic-cell-state-biomarkers.xlsx
+++ b/synthetic-cell-state-biomarkers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aqib/Desktop/BCCL/char-syn-gene-nets/circuit-state/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5B6C0F-A5B6-B840-84ED-29566FC6E15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02AB134-5C98-184C-ADDE-851ED9419225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{552E05E8-83AF-0E4B-B324-2E62912FB4B6}"/>
+    <workbookView xWindow="11200" yWindow="5900" windowWidth="28800" windowHeight="17500" xr2:uid="{552E05E8-83AF-0E4B-B324-2E62912FB4B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,9 +376,6 @@
     <t>inhibitor of g-type lysozyme</t>
   </si>
   <si>
-    <t>increased sensitivity to g-type lysozyme in the presence of EDTA</t>
-  </si>
-  <si>
     <t>glaR, zur</t>
   </si>
   <si>
@@ -945,6 +942,11 @@
   </si>
   <si>
     <t>acetolactate synthase II subunit</t>
+  </si>
+  <si>
+    <t>increased sensitivity to g-type lysozyme in the presence of EDTA
+also decreased ability to respire using alpha-ketoglutaric acid or succinic acid
+also decreased g-lysozyme inhibition -&gt; cell death</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1051,6 +1053,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1369,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B39F551-611F-CA48-A6AE-A3F53E814C65}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="134" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="134" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1456,7 +1461,7 @@
         <v>59</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1591,7 +1596,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1604,11 +1609,11 @@
       <c r="D10" t="s">
         <v>81</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1622,19 +1627,19 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" t="s">
         <v>87</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19" x14ac:dyDescent="0.2">
@@ -1645,13 +1650,13 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1662,19 +1667,19 @@
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="J13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1688,13 +1693,13 @@
         <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1708,10 +1713,10 @@
         <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1725,10 +1730,10 @@
         <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1742,10 +1747,10 @@
         <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1756,13 +1761,13 @@
         <v>33</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" t="s">
         <v>103</v>
-      </c>
-      <c r="J18" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1776,13 +1781,13 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" t="s">
         <v>106</v>
       </c>
-      <c r="E19" t="s">
-        <v>107</v>
-      </c>
       <c r="H19" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1796,7 +1801,7 @@
         <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1810,13 +1815,13 @@
         <v>58</v>
       </c>
       <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="I21" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1830,13 +1835,13 @@
         <v>58</v>
       </c>
       <c r="D22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1850,13 +1855,13 @@
         <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1884,10 +1889,10 @@
         <v>58</v>
       </c>
       <c r="D25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1901,10 +1906,10 @@
         <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1918,13 +1923,13 @@
         <v>58</v>
       </c>
       <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1938,13 +1943,13 @@
         <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -1958,7 +1963,7 @@
         <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -1972,10 +1977,10 @@
         <v>58</v>
       </c>
       <c r="D30" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" t="s">
         <v>122</v>
-      </c>
-      <c r="J30" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="19" x14ac:dyDescent="0.2">
@@ -1989,16 +1994,16 @@
         <v>58</v>
       </c>
       <c r="D31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J31" t="s">
         <v>129</v>
-      </c>
-      <c r="E31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J31" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2012,7 +2017,7 @@
         <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2026,13 +2031,13 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" t="s">
         <v>134</v>
       </c>
-      <c r="E33" t="s">
-        <v>135</v>
-      </c>
       <c r="F33" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2046,7 +2051,7 @@
         <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2060,7 +2065,7 @@
         <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2074,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -2088,7 +2093,7 @@
         <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -2102,7 +2107,7 @@
         <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -2116,16 +2121,16 @@
         <v>58</v>
       </c>
       <c r="D39" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" t="s">
         <v>140</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2139,19 +2144,19 @@
         <v>58</v>
       </c>
       <c r="D40" t="s">
+        <v>143</v>
+      </c>
+      <c r="E40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="E40" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -2165,13 +2170,13 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J41" t="s">
         <v>148</v>
-      </c>
-      <c r="E41" t="s">
-        <v>151</v>
-      </c>
-      <c r="J41" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -2185,7 +2190,7 @@
         <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2199,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -2210,22 +2215,22 @@
         <v>57</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" t="s">
+        <v>126</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E44" t="s">
+      <c r="I44" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J44" t="s">
         <v>127</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J44" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -2239,7 +2244,7 @@
         <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -2264,7 +2269,7 @@
         <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/synthetic-cell-state-biomarkers.xlsx
+++ b/synthetic-cell-state-biomarkers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aqib/Desktop/BCCL/char-syn-gene-nets/circuit-state/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02AB134-5C98-184C-ADDE-851ED9419225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679D7F02-B17E-F24B-8549-89C3607B0BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11200" yWindow="5900" windowWidth="28800" windowHeight="17500" xr2:uid="{552E05E8-83AF-0E4B-B324-2E62912FB4B6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="157">
   <si>
     <t>gene</t>
   </si>
@@ -947,6 +947,9 @@
     <t>increased sensitivity to g-type lysozyme in the presence of EDTA
 also decreased ability to respire using alpha-ketoglutaric acid or succinic acid
 also decreased g-lysozyme inhibition -&gt; cell death</t>
+  </si>
+  <si>
+    <t>https://ecoliwiki.org/colipedia/index.php/pliG:Gene</t>
   </si>
 </sst>
 </file>
@@ -1374,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B39F551-611F-CA48-A6AE-A3F53E814C65}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="134" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1385,7 +1388,7 @@
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="41.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.83203125" style="1"/>
     <col min="9" max="9" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
@@ -1611,6 +1614,9 @@
       </c>
       <c r="E10" s="7" t="s">
         <v>155</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>82</v>
